--- a/submit/report/卒業研究/設計書/開発スケジュール.xlsx
+++ b/submit/report/卒業研究/設計書/開発スケジュール.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="開発スケジュール" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,111 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
+    <t>卒業研究スケジュール</t>
+    <rPh sb="0" eb="4">
+      <t>ソツギョウケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+研究内容決め</t>
+    <rPh sb="1" eb="3">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ナイヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方針決定</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>研究・調査</t>
     <rPh sb="0" eb="2">
       <t>ケンキュウ</t>
@@ -53,103 +158,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">
+設計書作成</t>
+    <rPh sb="1" eb="4">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アプリ開発</t>
     <rPh sb="3" eb="5">
       <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成果発表</t>
-    <rPh sb="0" eb="4">
-      <t>セイカハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>方針決定</t>
-    <rPh sb="0" eb="2">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,31 +196,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">
-研究内容決め</t>
-    <rPh sb="1" eb="3">
-      <t>ケンキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ナイヨウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卒業研究スケジュール</t>
+    <t>成果発表</t>
     <rPh sb="0" eb="4">
-      <t>ソツギョウケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-設計書作成</t>
-    <rPh sb="1" eb="4">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
+      <t>セイカハッピョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1646,7 +1646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1948,15 +1948,15 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="33.19921875" customWidth="1"/>
-    <col min="3" max="13" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="13" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:14" ht="18.600000000000001" thickBot="1">
       <c r="B1" s="16" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1970,13 +1970,13 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14">
       <c r="B2" s="9"/>
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -2000,15 +2000,15 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="36">
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="1"/>
@@ -2022,7 +2022,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14">
       <c r="B4" s="7"/>
       <c r="C4" s="14"/>
       <c r="D4" s="1"/>
@@ -2036,9 +2036,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14">
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14">
       <c r="B6" s="7"/>
       <c r="C6" s="14"/>
       <c r="D6" s="1"/>
@@ -2066,9 +2066,9 @@
       <c r="L6" s="1"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14">
       <c r="B7" s="10" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="1"/>
@@ -2082,7 +2082,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14">
       <c r="B8" s="7"/>
       <c r="C8" s="14"/>
       <c r="D8" s="1"/>
@@ -2096,9 +2096,9 @@
       <c r="L8" s="1"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14">
       <c r="B9" s="7" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="1"/>
@@ -2112,9 +2112,9 @@
       <c r="L9" s="1"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14">
       <c r="B10" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="1"/>
@@ -2128,7 +2128,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14">
       <c r="B11" s="18"/>
       <c r="C11" s="14"/>
       <c r="D11" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14">
       <c r="B12" s="7"/>
       <c r="C12" s="14"/>
       <c r="D12" s="1"/>
@@ -2156,9 +2156,9 @@
       <c r="L12" s="1"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14">
       <c r="B13" s="10" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="1"/>
@@ -2173,7 +2173,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14">
       <c r="B14" s="7"/>
       <c r="C14" s="14"/>
       <c r="D14" s="1"/>
@@ -2187,9 +2187,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="36">
       <c r="B15" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="1"/>
@@ -2203,7 +2203,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14">
       <c r="B16" s="7"/>
       <c r="C16" s="14"/>
       <c r="D16" s="1"/>
@@ -2217,9 +2217,9 @@
       <c r="L16" s="1"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="5"/>
